--- a/biology/Zoologie/Dicranolasma_soerensenii/Dicranolasma_soerensenii.xlsx
+++ b/biology/Zoologie/Dicranolasma_soerensenii/Dicranolasma_soerensenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicranolasma soerensenii est une espèce d'opilions dyspnois de la famille des Dicranolasmatidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Italie, à Malte, en France et en Espagne.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syntype mesure 4 mm[1]
-Les mâles mesurent de 4,6 à 6,4 mm et les femelles de 4,3 à 6,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syntype mesure 4 mm
+Les mâles mesurent de 4,6 à 6,4 mm et les femelles de 4,3 à 6,3 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Thorell en 1876.
 </t>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Emil Sørensen[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Emil Sørensen.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Thorell, 1876 : « Sopra alcuni Opilioni (Phalangidea) d'Europa e dell'Asia occidentale, con un quadro dei generi europei di quest'ordine. » Annali del Museo Civico di Storia Naturale Giacomo Doria, vol. 8, p. 452-508 (texte intégral).</t>
         </is>
